--- a/G30_fire_route.xlsx
+++ b/G30_fire_route.xlsx
@@ -466,7 +466,7 @@
         <v>207.1617725353787</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>207.1617725353787</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -494,7 +494,7 @@
         <v>88.2779700718135</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +508,7 @@
         <v>88.2779700718135</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -550,7 +550,7 @@
         <v>262.2689459314618</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>262.2689459314618</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -606,7 +606,7 @@
         <v>74.14849964766651</v>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>74.14849964766651</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>74.84650960465692</v>
       </c>
       <c r="D14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>74.84650960465692</v>
       </c>
       <c r="D15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>89.15716460273958</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +676,7 @@
         <v>89.15716460273958</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>146.0136979875518</v>
       </c>
       <c r="D18" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>146.0136979875518</v>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>107.8378412246833</v>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -732,7 +732,7 @@
         <v>107.8378412246833</v>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>87.28115489611719</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
@@ -760,7 +760,7 @@
         <v>87.28115489611719</v>
       </c>
       <c r="D23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -774,7 +774,7 @@
         <v>57.28001396647874</v>
       </c>
       <c r="D24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -788,7 +788,7 @@
         <v>57.28001396647874</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
@@ -830,7 +830,7 @@
         <v>337.1705799739948</v>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -844,7 +844,7 @@
         <v>337.1705799739948</v>
       </c>
       <c r="D29" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
@@ -858,7 +858,7 @@
         <v>54.67174773134658</v>
       </c>
       <c r="D30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -872,7 +872,7 @@
         <v>54.67174773134658</v>
       </c>
       <c r="D31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
@@ -886,7 +886,7 @@
         <v>92.34717104492157</v>
       </c>
       <c r="D32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33">
@@ -900,7 +900,7 @@
         <v>92.34717104492157</v>
       </c>
       <c r="D33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34">
@@ -914,7 +914,7 @@
         <v>151.0033112219729</v>
       </c>
       <c r="D34" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>151.0033112219729</v>
       </c>
       <c r="D35" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +942,7 @@
         <v>268.1641288464958</v>
       </c>
       <c r="D36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +956,7 @@
         <v>268.1641288464958</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>153.0555454728773</v>
       </c>
       <c r="D38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>153.0555454728773</v>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -1026,7 +1026,7 @@
         <v>137.7860660589452</v>
       </c>
       <c r="D42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>137.7860660589452</v>
       </c>
       <c r="D43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44">
@@ -1054,7 +1054,7 @@
         <v>268.7936011143123</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -1068,7 +1068,7 @@
         <v>268.7936011143123</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1082,7 @@
         <v>129.0348790056394</v>
       </c>
       <c r="D46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47">
@@ -1096,7 +1096,7 @@
         <v>129.0348790056394</v>
       </c>
       <c r="D47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48">
@@ -1138,7 +1138,7 @@
         <v>181.0027624098594</v>
       </c>
       <c r="D50" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>181.0027624098594</v>
       </c>
       <c r="D51" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
@@ -1166,7 +1166,7 @@
         <v>192.566871501824</v>
       </c>
       <c r="D52" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -1180,7 +1180,7 @@
         <v>192.566871501824</v>
       </c>
       <c r="D53" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -1222,7 +1222,7 @@
         <v>206.7123605399542</v>
       </c>
       <c r="D56" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
@@ -1236,7 +1236,7 @@
         <v>206.7123605399542</v>
       </c>
       <c r="D57" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
@@ -1250,7 +1250,7 @@
         <v>306.3755864947467</v>
       </c>
       <c r="D58" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59">
@@ -1264,7 +1264,7 @@
         <v>306.3755864947467</v>
       </c>
       <c r="D59" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -1278,7 +1278,7 @@
         <v>86.68333173107735</v>
       </c>
       <c r="D60" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
@@ -1292,7 +1292,7 @@
         <v>86.68333173107735</v>
       </c>
       <c r="D61" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
@@ -1306,7 +1306,7 @@
         <v>148.2464164828277</v>
       </c>
       <c r="D62" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>148.2464164828277</v>
       </c>
       <c r="D63" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>56.22277118748239</v>
       </c>
       <c r="D64" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
@@ -1348,7 +1348,7 @@
         <v>56.22277118748239</v>
       </c>
       <c r="D65" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
@@ -1362,7 +1362,7 @@
         <v>49.73932046178355</v>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67">
@@ -1376,7 +1376,7 @@
         <v>49.73932046178355</v>
       </c>
       <c r="D67" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68">
@@ -1390,7 +1390,7 @@
         <v>88.0056816347672</v>
       </c>
       <c r="D68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -1404,7 +1404,7 @@
         <v>88.0056816347672</v>
       </c>
       <c r="D69" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="70">
@@ -1418,7 +1418,7 @@
         <v>132.9360748630709</v>
       </c>
       <c r="D70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
@@ -1432,7 +1432,7 @@
         <v>132.9360748630709</v>
       </c>
       <c r="D71" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -1474,7 +1474,7 @@
         <v>159.0503065070923</v>
       </c>
       <c r="D74" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="75">
@@ -1488,7 +1488,7 @@
         <v>159.0503065070923</v>
       </c>
       <c r="D75" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
@@ -1530,7 +1530,7 @@
         <v>225.4706189284981</v>
       </c>
       <c r="D78" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
@@ -1544,7 +1544,7 @@
         <v>225.4706189284981</v>
       </c>
       <c r="D79" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
@@ -1558,7 +1558,7 @@
         <v>276.3711272908225</v>
       </c>
       <c r="D80" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +1572,7 @@
         <v>276.3711272908225</v>
       </c>
       <c r="D81" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         <v>79.40403012442127</v>
       </c>
       <c r="D82" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -1600,7 +1600,7 @@
         <v>79.40403012442127</v>
       </c>
       <c r="D83" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84">
@@ -1614,7 +1614,7 @@
         <v>68.54195795277518</v>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
@@ -1628,7 +1628,7 @@
         <v>68.54195795277518</v>
       </c>
       <c r="D85" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
@@ -1642,7 +1642,7 @@
         <v>330.0242415338607</v>
       </c>
       <c r="D86" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>330.0242415338607</v>
       </c>
       <c r="D87" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>193.2149062572554</v>
       </c>
       <c r="D88" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>193.2149062572554</v>
       </c>
       <c r="D89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
@@ -1698,7 +1698,7 @@
         <v>247.7579463912308</v>
       </c>
       <c r="D90" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
@@ -1712,7 +1712,7 @@
         <v>247.7579463912308</v>
       </c>
       <c r="D91" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
@@ -1726,7 +1726,7 @@
         <v>235.1276249188938</v>
       </c>
       <c r="D92" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93">
@@ -1740,7 +1740,7 @@
         <v>235.1276249188938</v>
       </c>
       <c r="D93" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94">
@@ -1782,7 +1782,7 @@
         <v>165.3027525481654</v>
       </c>
       <c r="D96" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>165.3027525481654</v>
       </c>
       <c r="D97" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98">
@@ -1810,7 +1810,7 @@
         <v>60.37383539249432</v>
       </c>
       <c r="D98" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>60.37383539249432</v>
       </c>
       <c r="D99" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100">
@@ -1838,7 +1838,7 @@
         <v>231.9051530259731</v>
       </c>
       <c r="D100" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>231.9051530259731</v>
       </c>
       <c r="D101" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/G30_fire_route.xlsx
+++ b/G30_fire_route.xlsx
@@ -466,7 +466,7 @@
         <v>207.1617725353787</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -480,7 +480,7 @@
         <v>207.1617725353787</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         <v>197.3068675946177</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -536,7 +536,7 @@
         <v>197.3068675946177</v>
       </c>
       <c r="D7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -550,7 +550,7 @@
         <v>262.2689459314618</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -564,7 +564,7 @@
         <v>262.2689459314618</v>
       </c>
       <c r="D9" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -578,7 +578,7 @@
         <v>79.30952023559341</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -592,7 +592,7 @@
         <v>79.30952023559341</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
         <v>74.14849964766651</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -620,7 +620,7 @@
         <v>74.14849964766651</v>
       </c>
       <c r="D13" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>74.84650960465692</v>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
@@ -648,7 +648,7 @@
         <v>74.84650960465692</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -662,7 +662,7 @@
         <v>89.15716460273958</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -676,7 +676,7 @@
         <v>89.15716460273958</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -690,7 +690,7 @@
         <v>146.0136979875518</v>
       </c>
       <c r="D18" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -704,7 +704,7 @@
         <v>146.0136979875518</v>
       </c>
       <c r="D19" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -718,7 +718,7 @@
         <v>107.8378412246833</v>
       </c>
       <c r="D20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
@@ -732,7 +732,7 @@
         <v>107.8378412246833</v>
       </c>
       <c r="D21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>87.28115489611719</v>
       </c>
       <c r="D22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23">
@@ -760,7 +760,7 @@
         <v>87.28115489611719</v>
       </c>
       <c r="D23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -802,7 +802,7 @@
         <v>222.3803048833237</v>
       </c>
       <c r="D26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
@@ -816,7 +816,7 @@
         <v>222.3803048833237</v>
       </c>
       <c r="D27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>337.1705799739948</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
@@ -844,7 +844,7 @@
         <v>337.1705799739948</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -858,7 +858,7 @@
         <v>54.67174773134658</v>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -872,7 +872,7 @@
         <v>54.67174773134658</v>
       </c>
       <c r="D31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -886,7 +886,7 @@
         <v>92.34717104492157</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -900,7 +900,7 @@
         <v>92.34717104492157</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
@@ -914,7 +914,7 @@
         <v>151.0033112219729</v>
       </c>
       <c r="D34" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35">
@@ -928,7 +928,7 @@
         <v>151.0033112219729</v>
       </c>
       <c r="D35" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
@@ -942,7 +942,7 @@
         <v>268.1641288464958</v>
       </c>
       <c r="D36" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">
@@ -956,7 +956,7 @@
         <v>268.1641288464958</v>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38">
@@ -970,7 +970,7 @@
         <v>153.0555454728773</v>
       </c>
       <c r="D38" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
@@ -984,7 +984,7 @@
         <v>153.0555454728773</v>
       </c>
       <c r="D39" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
@@ -998,7 +998,7 @@
         <v>157.0031846810758</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41">
@@ -1012,7 +1012,7 @@
         <v>157.0031846810758</v>
       </c>
       <c r="D41" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -1026,7 +1026,7 @@
         <v>137.7860660589452</v>
       </c>
       <c r="D42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -1040,7 +1040,7 @@
         <v>137.7860660589452</v>
       </c>
       <c r="D43" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -1054,7 +1054,7 @@
         <v>268.7936011143123</v>
       </c>
       <c r="D44" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
@@ -1068,7 +1068,7 @@
         <v>268.7936011143123</v>
       </c>
       <c r="D45" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
@@ -1082,7 +1082,7 @@
         <v>129.0348790056394</v>
       </c>
       <c r="D46" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
@@ -1096,7 +1096,7 @@
         <v>129.0348790056394</v>
       </c>
       <c r="D47" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1110,7 @@
         <v>162.077142126828</v>
       </c>
       <c r="D48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
@@ -1124,7 +1124,7 @@
         <v>162.077142126828</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1138,7 @@
         <v>181.0027624098594</v>
       </c>
       <c r="D50" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51">
@@ -1152,7 +1152,7 @@
         <v>181.0027624098594</v>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52">
@@ -1194,7 +1194,7 @@
         <v>229.9239004540415</v>
       </c>
       <c r="D54" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
@@ -1208,7 +1208,7 @@
         <v>229.9239004540415</v>
       </c>
       <c r="D55" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56">
@@ -1250,7 +1250,7 @@
         <v>306.3755864947467</v>
       </c>
       <c r="D58" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59">
@@ -1264,7 +1264,7 @@
         <v>306.3755864947467</v>
       </c>
       <c r="D59" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60">
@@ -1306,7 +1306,7 @@
         <v>148.2464164828277</v>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63">
@@ -1320,7 +1320,7 @@
         <v>148.2464164828277</v>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64">
@@ -1334,7 +1334,7 @@
         <v>56.22277118748239</v>
       </c>
       <c r="D64" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65">
@@ -1348,7 +1348,7 @@
         <v>56.22277118748239</v>
       </c>
       <c r="D65" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66">
@@ -1390,7 +1390,7 @@
         <v>88.0056816347672</v>
       </c>
       <c r="D68" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69">
@@ -1404,7 +1404,7 @@
         <v>88.0056816347672</v>
       </c>
       <c r="D69" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -1446,7 +1446,7 @@
         <v>364.0673014704836</v>
       </c>
       <c r="D72" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73">
@@ -1460,7 +1460,7 @@
         <v>364.0673014704836</v>
       </c>
       <c r="D73" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74">
@@ -1474,7 +1474,7 @@
         <v>159.0503065070923</v>
       </c>
       <c r="D74" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75">
@@ -1488,7 +1488,7 @@
         <v>159.0503065070923</v>
       </c>
       <c r="D75" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76">
@@ -1502,7 +1502,7 @@
         <v>201.7250604163994</v>
       </c>
       <c r="D76" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77">
@@ -1516,7 +1516,7 @@
         <v>201.7250604163994</v>
       </c>
       <c r="D77" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78">
@@ -1530,7 +1530,7 @@
         <v>225.4706189284981</v>
       </c>
       <c r="D78" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="79">
@@ -1544,7 +1544,7 @@
         <v>225.4706189284981</v>
       </c>
       <c r="D79" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
@@ -1558,7 +1558,7 @@
         <v>276.3711272908225</v>
       </c>
       <c r="D80" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81">
@@ -1572,7 +1572,7 @@
         <v>276.3711272908225</v>
       </c>
       <c r="D81" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82">
@@ -1642,7 +1642,7 @@
         <v>330.0242415338607</v>
       </c>
       <c r="D86" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87">
@@ -1656,7 +1656,7 @@
         <v>330.0242415338607</v>
       </c>
       <c r="D87" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88">
@@ -1670,7 +1670,7 @@
         <v>193.2149062572554</v>
       </c>
       <c r="D88" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89">
@@ -1684,7 +1684,7 @@
         <v>193.2149062572554</v>
       </c>
       <c r="D89" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90">
@@ -1726,7 +1726,7 @@
         <v>235.1276249188938</v>
       </c>
       <c r="D92" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93">
@@ -1740,7 +1740,7 @@
         <v>235.1276249188938</v>
       </c>
       <c r="D93" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
@@ -1754,7 +1754,7 @@
         <v>78.03204469959762</v>
       </c>
       <c r="D94" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -1768,7 +1768,7 @@
         <v>78.03204469959762</v>
       </c>
       <c r="D95" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96">
@@ -1782,7 +1782,7 @@
         <v>165.3027525481654</v>
       </c>
       <c r="D96" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97">
@@ -1796,7 +1796,7 @@
         <v>165.3027525481654</v>
       </c>
       <c r="D97" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="98">
@@ -1810,7 +1810,7 @@
         <v>60.37383539249432</v>
       </c>
       <c r="D98" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99">
@@ -1824,7 +1824,7 @@
         <v>60.37383539249432</v>
       </c>
       <c r="D99" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100">
@@ -1838,7 +1838,7 @@
         <v>231.9051530259731</v>
       </c>
       <c r="D100" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
@@ -1852,7 +1852,7 @@
         <v>231.9051530259731</v>
       </c>
       <c r="D101" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/G30_fire_route.xlsx
+++ b/G30_fire_route.xlsx
@@ -457,30 +457,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>207.6342938919291</v>
+      </c>
+      <c r="D2" t="n">
         <v>29</v>
-      </c>
-      <c r="C2" t="n">
-        <v>207.1617725353787</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14</v>
+      </c>
+      <c r="C3" t="n">
+        <v>207.6342938919291</v>
+      </c>
+      <c r="D3" t="n">
         <v>29</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>207.1617725353787</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="4">
@@ -488,27 +488,27 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>88.2779700718135</v>
+        <v>205.6817930688081</v>
       </c>
       <c r="D4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>88.2779700718135</v>
+        <v>205.6817930688081</v>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
@@ -516,41 +516,41 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>197.3068675946177</v>
+        <v>108.5218871933215</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>197.3068675946177</v>
+        <v>108.5218871933215</v>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>262.2689459314618</v>
+        <v>112.8007092176286</v>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -558,55 +558,55 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>262.2689459314618</v>
+        <v>112.8007092176286</v>
       </c>
       <c r="D9" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>79.30952023559341</v>
+        <v>336.0372003216311</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>79.30952023559341</v>
+        <v>336.0372003216311</v>
       </c>
       <c r="D11" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>74.14849964766651</v>
+        <v>338.5985823951423</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -614,80 +614,80 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>74.14849964766651</v>
+        <v>338.5985823951423</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>74.84650960465692</v>
+        <v>980.0183671748198</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>74.84650960465692</v>
+        <v>980.0183671748198</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>89.15716460273958</v>
+        <v>241.3565826738521</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>89.15716460273958</v>
+        <v>241.3565826738521</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="n">
         <v>15</v>
       </c>
-      <c r="B18" t="n">
-        <v>23</v>
-      </c>
       <c r="C18" t="n">
-        <v>146.0136979875518</v>
+        <v>129.0348790056394</v>
       </c>
       <c r="D18" t="n">
         <v>24</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>146.0136979875518</v>
+        <v>129.0348790056394</v>
       </c>
       <c r="D19" t="n">
         <v>24</v>
@@ -709,16 +709,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>28</v>
       </c>
       <c r="C20" t="n">
-        <v>107.8378412246833</v>
+        <v>52.39274758971894</v>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -726,139 +726,139 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C21" t="n">
-        <v>107.8378412246833</v>
+        <v>52.39274758971894</v>
       </c>
       <c r="D21" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>87.28115489611719</v>
+        <v>152.1610988393551</v>
       </c>
       <c r="D22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>87.28115489611719</v>
+        <v>152.1610988393551</v>
       </c>
       <c r="D23" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>57.28001396647874</v>
+        <v>308.1850093693722</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B25" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C25" t="n">
-        <v>57.28001396647874</v>
+        <v>308.1850093693722</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C26" t="n">
-        <v>222.3803048833237</v>
+        <v>42.72001872658765</v>
       </c>
       <c r="D26" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>222.3803048833237</v>
+        <v>42.72001872658765</v>
       </c>
       <c r="D27" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C28" t="n">
-        <v>337.1705799739948</v>
+        <v>192.3538406167135</v>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C29" t="n">
-        <v>337.1705799739948</v>
+        <v>192.3538406167135</v>
       </c>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B30" t="n">
         <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>54.67174773134658</v>
+        <v>208.5809195492243</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
@@ -866,276 +866,276 @@
         <v>16</v>
       </c>
       <c r="B31" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>54.67174773134658</v>
+        <v>208.5809195492243</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>92.34717104492157</v>
+        <v>236.211769393483</v>
       </c>
       <c r="D32" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>92.34717104492157</v>
+        <v>236.211769393483</v>
       </c>
       <c r="D33" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B34" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C34" t="n">
-        <v>151.0033112219729</v>
+        <v>52.40229002629561</v>
       </c>
       <c r="D34" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>151.0033112219729</v>
+        <v>52.40229002629561</v>
       </c>
       <c r="D35" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C36" t="n">
-        <v>268.1641288464958</v>
+        <v>207.4801195295588</v>
       </c>
       <c r="D36" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>268.1641288464958</v>
+        <v>207.4801195295588</v>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C38" t="n">
-        <v>153.0555454728773</v>
+        <v>272.0091910211859</v>
       </c>
       <c r="D38" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B39" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C39" t="n">
-        <v>153.0555454728773</v>
+        <v>272.0091910211859</v>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B40" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C40" t="n">
-        <v>157.0031846810758</v>
+        <v>187.3953041033846</v>
       </c>
       <c r="D40" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B41" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
-        <v>157.0031846810758</v>
+        <v>187.3953041033846</v>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B42" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C42" t="n">
-        <v>137.7860660589452</v>
+        <v>206.0218435020908</v>
       </c>
       <c r="D42" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B43" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n">
-        <v>137.7860660589452</v>
+        <v>206.0218435020908</v>
       </c>
       <c r="D43" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C44" t="n">
-        <v>268.7936011143123</v>
+        <v>605.4370322337411</v>
       </c>
       <c r="D44" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B45" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>268.7936011143123</v>
+        <v>605.4370322337411</v>
       </c>
       <c r="D45" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B46" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C46" t="n">
-        <v>129.0348790056394</v>
+        <v>216.0856311743102</v>
       </c>
       <c r="D46" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B47" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>129.0348790056394</v>
+        <v>216.0856311743102</v>
       </c>
       <c r="D47" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C48" t="n">
-        <v>162.077142126828</v>
+        <v>198.5170017907786</v>
       </c>
       <c r="D48" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B49" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C49" t="n">
-        <v>162.077142126828</v>
+        <v>198.5170017907786</v>
       </c>
       <c r="D49" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>181.0027624098594</v>
+        <v>119.6411300515003</v>
       </c>
       <c r="D50" t="n">
         <v>23</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C51" t="n">
-        <v>181.0027624098594</v>
+        <v>119.6411300515003</v>
       </c>
       <c r="D51" t="n">
         <v>23</v>
@@ -1157,69 +1157,69 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B52" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C52" t="n">
-        <v>192.566871501824</v>
+        <v>228.9650628371062</v>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B53" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>192.566871501824</v>
+        <v>228.9650628371062</v>
       </c>
       <c r="D53" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B54" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C54" t="n">
-        <v>229.9239004540415</v>
+        <v>186.1316738225926</v>
       </c>
       <c r="D54" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>229.9239004540415</v>
+        <v>186.1316738225926</v>
       </c>
       <c r="D55" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B56" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>206.7123605399542</v>
+        <v>297.0690155502589</v>
       </c>
       <c r="D56" t="n">
         <v>28</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B57" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C57" t="n">
-        <v>206.7123605399542</v>
+        <v>297.0690155502589</v>
       </c>
       <c r="D57" t="n">
         <v>28</v>
@@ -1241,44 +1241,44 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B58" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C58" t="n">
-        <v>306.3755864947467</v>
+        <v>99.02019995940222</v>
       </c>
       <c r="D58" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C59" t="n">
-        <v>306.3755864947467</v>
+        <v>99.02019995940222</v>
       </c>
       <c r="D59" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B60" t="n">
         <v>28</v>
       </c>
       <c r="C60" t="n">
-        <v>86.68333173107735</v>
+        <v>165.7377446449661</v>
       </c>
       <c r="D60" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -1286,335 +1286,335 @@
         <v>28</v>
       </c>
       <c r="B61" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C61" t="n">
-        <v>86.68333173107735</v>
+        <v>165.7377446449661</v>
       </c>
       <c r="D61" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>148.2464164828277</v>
+        <v>229.7324530840168</v>
       </c>
       <c r="D62" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>148.2464164828277</v>
+        <v>229.7324530840168</v>
       </c>
       <c r="D63" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B64" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
-        <v>56.22277118748239</v>
+        <v>140.2355161861645</v>
       </c>
       <c r="D64" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
+        <v>30</v>
+      </c>
+      <c r="B65" t="n">
         <v>9</v>
       </c>
-      <c r="B65" t="n">
-        <v>2</v>
-      </c>
       <c r="C65" t="n">
-        <v>56.22277118748239</v>
+        <v>140.2355161861645</v>
       </c>
       <c r="D65" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
+        <v>16</v>
+      </c>
+      <c r="B66" t="n">
+        <v>17</v>
+      </c>
+      <c r="C66" t="n">
+        <v>73.55270219373317</v>
+      </c>
+      <c r="D66" t="n">
         <v>18</v>
-      </c>
-      <c r="B66" t="n">
-        <v>30</v>
-      </c>
-      <c r="C66" t="n">
-        <v>49.73932046178355</v>
-      </c>
-      <c r="D66" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B67" t="n">
+        <v>16</v>
+      </c>
+      <c r="C67" t="n">
+        <v>73.55270219373317</v>
+      </c>
+      <c r="D67" t="n">
         <v>18</v>
-      </c>
-      <c r="C67" t="n">
-        <v>49.73932046178355</v>
-      </c>
-      <c r="D67" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B68" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C68" t="n">
-        <v>88.0056816347672</v>
+        <v>256.7800615312646</v>
       </c>
       <c r="D68" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
+        <v>22</v>
+      </c>
+      <c r="B69" t="n">
         <v>17</v>
       </c>
-      <c r="B69" t="n">
-        <v>16</v>
-      </c>
       <c r="C69" t="n">
-        <v>88.0056816347672</v>
+        <v>256.7800615312646</v>
       </c>
       <c r="D69" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C70" t="n">
-        <v>132.9360748630709</v>
+        <v>521.4604491234211</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B71" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>132.9360748630709</v>
+        <v>521.4604491234211</v>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B72" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C72" t="n">
-        <v>364.0673014704836</v>
+        <v>341.0058650522011</v>
       </c>
       <c r="D72" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B73" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C73" t="n">
-        <v>364.0673014704836</v>
+        <v>341.0058650522011</v>
       </c>
       <c r="D73" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B74" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C74" t="n">
-        <v>159.0503065070923</v>
+        <v>292.1592031752551</v>
       </c>
       <c r="D74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="n">
-        <v>159.0503065070923</v>
+        <v>292.1592031752551</v>
       </c>
       <c r="D75" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
+        <v>4</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="n">
+        <v>126.241831418908</v>
+      </c>
+      <c r="D76" t="n">
         <v>21</v>
-      </c>
-      <c r="B76" t="n">
-        <v>22</v>
-      </c>
-      <c r="C76" t="n">
-        <v>201.7250604163994</v>
-      </c>
-      <c r="D76" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>126.241831418908</v>
+      </c>
+      <c r="D77" t="n">
         <v>21</v>
-      </c>
-      <c r="C77" t="n">
-        <v>201.7250604163994</v>
-      </c>
-      <c r="D77" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C78" t="n">
-        <v>225.4706189284981</v>
+        <v>502.7802700981812</v>
       </c>
       <c r="D78" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B79" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>225.4706189284981</v>
+        <v>502.7802700981812</v>
       </c>
       <c r="D79" t="n">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B80" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C80" t="n">
-        <v>276.3711272908225</v>
+        <v>124.0362850137007</v>
       </c>
       <c r="D80" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B81" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C81" t="n">
-        <v>276.3711272908225</v>
+        <v>124.0362850137007</v>
       </c>
       <c r="D81" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
+        <v>10</v>
+      </c>
+      <c r="B82" t="n">
         <v>13</v>
       </c>
-      <c r="B82" t="n">
-        <v>21</v>
-      </c>
       <c r="C82" t="n">
-        <v>79.40403012442127</v>
+        <v>98.47842403288143</v>
       </c>
       <c r="D82" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B83" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C83" t="n">
-        <v>79.40403012442127</v>
+        <v>98.47842403288143</v>
       </c>
       <c r="D83" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B84" t="n">
         <v>27</v>
       </c>
       <c r="C84" t="n">
-        <v>68.54195795277518</v>
+        <v>253.8227728159946</v>
       </c>
       <c r="D84" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85">
@@ -1622,41 +1622,41 @@
         <v>27</v>
       </c>
       <c r="B85" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C85" t="n">
-        <v>68.54195795277518</v>
+        <v>253.8227728159946</v>
       </c>
       <c r="D85" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B86" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C86" t="n">
-        <v>330.0242415338607</v>
+        <v>147.5262688472802</v>
       </c>
       <c r="D86" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C87" t="n">
-        <v>330.0242415338607</v>
+        <v>147.5262688472802</v>
       </c>
       <c r="D87" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88">
@@ -1664,181 +1664,181 @@
         <v>4</v>
       </c>
       <c r="B88" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C88" t="n">
-        <v>193.2149062572554</v>
+        <v>114.9347641055569</v>
       </c>
       <c r="D88" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B89" t="n">
         <v>4</v>
       </c>
       <c r="C89" t="n">
-        <v>193.2149062572554</v>
+        <v>114.9347641055569</v>
       </c>
       <c r="D89" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B90" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C90" t="n">
-        <v>247.7579463912308</v>
+        <v>116.2110149684616</v>
       </c>
       <c r="D90" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B91" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C91" t="n">
-        <v>247.7579463912308</v>
+        <v>116.2110149684616</v>
       </c>
       <c r="D91" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B92" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C92" t="n">
-        <v>235.1276249188938</v>
+        <v>168.4666139031707</v>
       </c>
       <c r="D92" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C93" t="n">
-        <v>235.1276249188938</v>
+        <v>168.4666139031707</v>
       </c>
       <c r="D93" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B94" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C94" t="n">
-        <v>78.03204469959762</v>
+        <v>813.0614982890286</v>
       </c>
       <c r="D94" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B95" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>78.03204469959762</v>
+        <v>813.0614982890286</v>
       </c>
       <c r="D95" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B96" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C96" t="n">
-        <v>165.3027525481654</v>
+        <v>211.1421322237701</v>
       </c>
       <c r="D96" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B97" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C97" t="n">
-        <v>165.3027525481654</v>
+        <v>211.1421322237701</v>
       </c>
       <c r="D97" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B98" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C98" t="n">
-        <v>60.37383539249432</v>
+        <v>193.0388561922185</v>
       </c>
       <c r="D98" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
-        <v>60.37383539249432</v>
+        <v>193.0388561922185</v>
       </c>
       <c r="D99" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B100" t="n">
         <v>28</v>
       </c>
       <c r="C100" t="n">
-        <v>231.9051530259731</v>
+        <v>89.45389874119518</v>
       </c>
       <c r="D100" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101">
@@ -1846,13 +1846,13 @@
         <v>28</v>
       </c>
       <c r="B101" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>231.9051530259731</v>
+        <v>89.45389874119518</v>
       </c>
       <c r="D101" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
